--- a/test-data/XCOV19.xlsx
+++ b/test-data/XCOV19.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshathagujjar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshathagujjar/Documents/selenium 206/XCOV19/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="signUp" sheetId="2" r:id="rId2"/>
+    <sheet name="ChatDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,10 +28,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+  <si>
+    <t>Testing!</t>
+  </si>
+  <si>
+    <t>testxcov19@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>test1223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Testing19!</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testing xcov19</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>NameField</t>
+  </si>
+  <si>
+    <t>EmailField</t>
+  </si>
+  <si>
+    <t>MessageField</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>myCovidConnect13@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,13 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +405,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-data/XCOV19.xlsx
+++ b/test-data/XCOV19.xlsx
@@ -70,7 +70,7 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>myCovidConnect13@gmail.com</t>
+    <t>myCovidConnect21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test-data/XCOV19.xlsx
+++ b/test-data/XCOV19.xlsx
@@ -70,7 +70,7 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>myCovidConnect21@gmail.com</t>
+    <t>myCovidConnect25@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test-data/XCOV19.xlsx
+++ b/test-data/XCOV19.xlsx
@@ -70,7 +70,7 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>myCovidConnect25@gmail.com</t>
+    <t>myCovidConnect29@gmail.com</t>
   </si>
 </sst>
 </file>
